--- a/Pubmed/Nipah/ReferenceSummary_PubMed_Missing_Mar17.xlsx
+++ b/Pubmed/Nipah/ReferenceSummary_PubMed_Missing_Mar17.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/Library/CloudStorage/Dropbox/Shared/___SystematicReviewsAI/Nipah/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/Nipah/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB00A279-39DD-6744-A7BC-8D3CBB20E0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1615B06B-DAF4-DB41-8315-4D719D26E074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5380" yWindow="4320" windowWidth="37760" windowHeight="19800" xr2:uid="{3031CDAD-EDE9-504F-A9EA-0D1529922A9B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>Authors</t>
   </si>
@@ -195,24 +195,6 @@
   </si>
   <si>
     <t>2002-2008</t>
-  </si>
-  <si>
-    <t>A VLP-based vaccine provides complete protection against Nipah virus challenge following multiple-dose or single-dose vaccination schedules in a hamster model</t>
-  </si>
-  <si>
-    <t>Walpita P, Cong Y, Jahrling PB, Rojas O, Postnikova E, Yu S, Johns L, Holbrook MR.</t>
-  </si>
-  <si>
-    <t>NPJ Vaccines</t>
-  </si>
-  <si>
-    <t>Rodent</t>
-  </si>
-  <si>
-    <t>Malaysian</t>
-  </si>
-  <si>
-    <t>KY425646</t>
   </si>
 </sst>
 </file>
@@ -680,11 +662,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4482E4AD-E7FE-EC42-9928-56B66BBA47E4}">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U5" sqref="U5"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -918,35 +900,6 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5">
-        <v>2017</v>
-      </c>
-      <c r="D5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="1">
-        <v>29263876</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:W1" xr:uid="{4482E4AD-E7FE-EC42-9928-56B66BBA47E4}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W21">
